--- a/Data/SLA_Water Content_Final.xlsx
+++ b/Data/SLA_Water Content_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel_anstett/Dropbox/a_Resurrection/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C7FC7B-BB22-3549-9A69-985840384F48}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211F748F-6430-5E4E-81C7-EB309EB02416}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28740" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -712,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G3081"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A2862" zoomScale="140" zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E3078" sqref="E3078"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A2378" zoomScale="140" zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="F2396" sqref="F2396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
